--- a/data/case1/18/Q1_3.xlsx
+++ b/data/case1/18/Q1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.079973021904933717</v>
+        <v>0.10955972832100969</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.005999999982186921</v>
+        <v>-0.0059999999480808697</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.012162307504244296</v>
+        <v>-0.0039999999590749624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999746824813</v>
+        <v>-0.0079999999237028163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999890524265</v>
+        <v>-0.0029999999650778264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999991673107</v>
+        <v>-0.0019999999722628559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999681941176</v>
+        <v>-0.0099999999050637278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999677700124</v>
+        <v>-0.0099999999058293376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999909994237</v>
+        <v>-0.0019999999768423038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999909767752</v>
+        <v>-0.0019999999801321167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.002999999988074542</v>
+        <v>-0.0029999999718075543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999866576204</v>
+        <v>-0.0034999999683855698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999871860865</v>
+        <v>0.01907153387886229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.007999999974337868</v>
+        <v>-0.0079999999379207765</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999999527877748</v>
+        <v>-0.00099999999889277547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999993036905</v>
+        <v>0.020936736126373923</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999943838276</v>
+        <v>-0.0019999999915647493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.025013899916813465</v>
+        <v>-0.003999999974310775</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.003999999987930547</v>
+        <v>-0.0028050937951658028</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999870801162</v>
+        <v>-0.0039999999620778937</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999869184677</v>
+        <v>-0.0039999999616293636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999868225444</v>
+        <v>-0.0039999999612696513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999827994301</v>
+        <v>-0.0049999999477767787</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999937391877</v>
+        <v>-0.019999999814903191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999936531232</v>
+        <v>-0.019999999812169378</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.054403649780466523</v>
+        <v>-0.0024999999677657314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999898334124</v>
+        <v>-0.0024999999673829265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999893736131</v>
+        <v>-0.00199999997024225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999734831064</v>
+        <v>-0.0069999999272054581</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.05999999981817572</v>
+        <v>-0.059999999477032606</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999746386266</v>
+        <v>-0.0069999999377525768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999665651984</v>
+        <v>0.069941757791172066</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.050978288251409154</v>
+        <v>-0.0039999999665134567</v>
       </c>
     </row>
   </sheetData>
